--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/15/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.566</v>
+        <v>-12.934</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.004</v>
+        <v>-7.88</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.222</v>
+        <v>-7.411999999999999</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,10 +570,10 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.26</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.215999999999999</v>
+        <v>-7.858</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -627,18 +627,18 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.562</v>
+        <v>12.915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.208</v>
+        <v>-21.848</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.718</v>
+        <v>-13.085</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,13 +672,13 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.764</v>
+        <v>-11.843</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>14.15</v>
+        <v>12.915</v>
       </c>
     </row>
     <row r="15">
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.568000000000001</v>
+        <v>-7.74</v>
       </c>
       <c r="E19" t="n">
-        <v>13.656</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="20">
@@ -794,10 +794,10 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.147999999999999</v>
+        <v>-7.478999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>13.726</v>
+        <v>13.378</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.446</v>
+        <v>-12.601</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.821000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
